--- a/Production_plan_2.0.xlsx
+++ b/Production_plan_2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjay.Khadka\GB_APP\GB-APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063CFC2F-3C7E-46A5-82F9-3B098FEF83F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4BAFF6-F6A2-4067-8557-DF89B6298B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2430" windowWidth="24195" windowHeight="12675" xr2:uid="{F0426719-BCD1-4476-9DD7-17D1E3D05C92}"/>
+    <workbookView xWindow="240" yWindow="1470" windowWidth="24630" windowHeight="12675" xr2:uid="{F0426719-BCD1-4476-9DD7-17D1E3D05C92}"/>
   </bookViews>
   <sheets>
     <sheet name="soh_table" sheetId="1" r:id="rId1"/>
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD08828-E480-4E05-80E4-AD92D6750B94}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B180"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Production_plan_2.0.xlsx
+++ b/Production_plan_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjay.Khadka\GB_APP\GB-APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4BAFF6-F6A2-4067-8557-DF89B6298B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150ECDA7-4B28-4869-8B87-AE196FD636A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1470" windowWidth="24630" windowHeight="12675" xr2:uid="{F0426719-BCD1-4476-9DD7-17D1E3D05C92}"/>
+    <workbookView xWindow="0" yWindow="645" windowWidth="18660" windowHeight="14490" activeTab="1" xr2:uid="{F0426719-BCD1-4476-9DD7-17D1E3D05C92}"/>
   </bookViews>
   <sheets>
     <sheet name="soh_table" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="596">
   <si>
     <t>Week Commencing</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Ham Slicing Log - Whole</t>
   </si>
   <si>
-    <t>HF LOG</t>
-  </si>
-  <si>
     <t>Diced Bacon 90g</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Diced Pancetta - 200g</t>
   </si>
   <si>
-    <t>Costco Ham Log</t>
-  </si>
-  <si>
     <t>4x4 Ham</t>
   </si>
   <si>
@@ -615,9 +609,6 @@
     <t>SOH</t>
   </si>
   <si>
-    <t>301</t>
-  </si>
-  <si>
     <t>Pork 2 Piece Leg</t>
   </si>
   <si>
@@ -702,9 +693,6 @@
     <t>Sugar Raw</t>
   </si>
   <si>
-    <t>RM0684</t>
-  </si>
-  <si>
     <t>Potato Starch</t>
   </si>
   <si>
@@ -1131,9 +1119,6 @@
     <t>Veal Trim</t>
   </si>
   <si>
-    <t>SONI101</t>
-  </si>
-  <si>
     <t>Onions fresh Sliced</t>
   </si>
   <si>
@@ -1218,9 +1203,6 @@
     <t>1003.8</t>
   </si>
   <si>
-    <t>1004</t>
-  </si>
-  <si>
     <t>1004.090.1</t>
   </si>
   <si>
@@ -1278,12 +1260,6 @@
     <t>1020.200.80</t>
   </si>
   <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>1024.4000.1</t>
-  </si>
-  <si>
     <t>1024.900.10</t>
   </si>
   <si>
@@ -1726,6 +1702,129 @@
   </si>
   <si>
     <t>2051.30.1500.0.8</t>
+  </si>
+  <si>
+    <t>1025.4000.1</t>
+  </si>
+  <si>
+    <t>SONI10KG</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>643</t>
+  </si>
+  <si>
+    <t>GRCO1</t>
+  </si>
+  <si>
+    <t>389001FE</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>SIFRGC10</t>
+  </si>
+  <si>
+    <t>SIFRRC10</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>8-MAR019</t>
+  </si>
+  <si>
+    <t>MCBLBP25</t>
+  </si>
+  <si>
+    <t>636</t>
+  </si>
+  <si>
+    <t>3-PK-OFF-F-12261</t>
+  </si>
+  <si>
+    <t>999-SK</t>
+  </si>
+  <si>
+    <t>107-MB</t>
+  </si>
+  <si>
+    <t>222-CC</t>
+  </si>
+  <si>
+    <t>502-TT</t>
+  </si>
+  <si>
+    <t>CHIV061-1</t>
+  </si>
+  <si>
+    <t>Green Peppercorn</t>
+  </si>
+  <si>
+    <t>Ginger Ground</t>
+  </si>
+  <si>
+    <t>Cold Cut Olymp</t>
+  </si>
+  <si>
+    <t>Green Lime Liquid Color 1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Pork Cutting Fat RECOVERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Peb Brisket</t>
+  </si>
+  <si>
+    <t>Simped Frz Green Capsicum 10kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Simped Frz Red Capsicum 10kg</t>
+  </si>
+  <si>
+    <t>Garlic Granules 10/20 25kg</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bbq Marinade (pail) 15kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Blue Bolied Dried Peas 25kg</t>
+  </si>
+  <si>
+    <t>Feta</t>
+  </si>
+  <si>
+    <t>Pork Diaphram Bulk Pack Frz</t>
+  </si>
+  <si>
+    <t>Cranberries Dry Sliced</t>
+  </si>
+  <si>
+    <t>Skin Emulsion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Meyer Brisket</t>
+  </si>
+  <si>
+    <t>Cold Cut Emulsion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Turkey Trimming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bacon Offcuts</t>
+  </si>
+  <si>
+    <t>Chive Flakes 1Kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	GF Chicken premix</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +1930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1841,6 +1940,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2176,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD08828-E480-4E05-80E4-AD92D6750B94}">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2226,10 +2328,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
@@ -2246,10 +2348,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>10</v>
@@ -2266,10 +2368,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
@@ -2286,10 +2388,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -2306,10 +2408,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -2326,10 +2428,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
@@ -2346,10 +2448,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
@@ -2366,10 +2468,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>16</v>
@@ -2386,10 +2488,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
@@ -2406,269 +2508,266 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11">
-        <v>603</v>
+      <c r="D11">
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I11">
-        <v>603</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1840</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>140</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>56</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C16" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
       <c r="H16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="C17" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="D17">
+        <v>82</v>
+      </c>
       <c r="H17">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="H18">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I18">
-        <v>246</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D19">
-        <v>53</v>
+      <c r="G19">
+        <v>106</v>
       </c>
       <c r="H19">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>424</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G20">
-        <v>106</v>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C21" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
       <c r="H21">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C24" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H24">
@@ -2680,75 +2779,75 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D25">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
       <c r="H25">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C26" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D26">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>179</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C28" s="4" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H28">
@@ -2760,490 +2859,493 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C29" s="5" t="s">
+        <v>45908</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="G29">
+        <v>2500</v>
+      </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>412</v>
+        <v>555</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G30">
-        <v>2500</v>
+        <v>131</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>2500</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G31">
-        <v>129</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G32">
-        <v>131</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
       <c r="H33">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>2016</v>
+      </c>
       <c r="H34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D35">
-        <v>28</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
+      <c r="G35">
+        <v>232</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D36">
-        <v>20</v>
-      </c>
-      <c r="G36">
-        <v>2016</v>
+        <v>25</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I36">
-        <v>2176</v>
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G37">
-        <v>232</v>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I37">
-        <v>232</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
       <c r="H38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D39">
-        <v>18</v>
-      </c>
-      <c r="E39">
-        <v>8</v>
+      <c r="G39">
+        <v>210</v>
       </c>
       <c r="H39">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>152</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D40">
+        <v>58</v>
+      </c>
       <c r="H40">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>580</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G41">
-        <v>210</v>
+      <c r="D41">
+        <v>119</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="I41">
-        <v>210</v>
+        <v>952</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D42">
-        <v>58</v>
-      </c>
       <c r="H42">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>580</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D43">
-        <v>119</v>
-      </c>
       <c r="H43">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="D44">
+        <v>165</v>
+      </c>
       <c r="H44">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
       <c r="H45">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D46">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H46">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="I46">
-        <v>1320</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I47">
-        <v>286</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="I48">
-        <v>140</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D49">
-        <v>14</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="I49">
-        <v>143</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D50">
-        <v>98</v>
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
       </c>
       <c r="H50">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="I50">
-        <v>980</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D51">
-        <v>207</v>
-      </c>
       <c r="H51">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2070</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E52">
         <v>6</v>
       </c>
       <c r="H52">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="I52">
-        <v>276</v>
+        <v>896</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>60</v>
@@ -3257,361 +3359,361 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D54">
-        <v>89</v>
-      </c>
-      <c r="E54">
-        <v>6</v>
-      </c>
       <c r="H54">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>62</v>
       </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
       <c r="H55">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
       <c r="H56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I58">
-        <v>15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I59">
-        <v>30</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D60">
-        <v>17</v>
-      </c>
       <c r="H60">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D61">
-        <v>27</v>
-      </c>
       <c r="H61">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="D62">
+        <v>208</v>
+      </c>
       <c r="H62">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="D63">
+        <v>30</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
       <c r="H63">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D64">
-        <v>208</v>
-      </c>
       <c r="H64">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
       <c r="H65">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
       <c r="H66">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>520</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D68">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I68">
-        <v>520</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I69">
-        <v>10</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D70">
-        <v>38</v>
-      </c>
-      <c r="E70">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="H70">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="I70">
-        <v>307</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D71">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H71">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I71">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>79</v>
@@ -3628,578 +3730,572 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I73">
-        <v>80</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D74">
-        <v>61</v>
-      </c>
       <c r="H74">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D75">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H75">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I75">
-        <v>1800</v>
+        <v>752</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
       <c r="H76">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D77">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="H77">
-        <v>94</v>
+        <v>340</v>
       </c>
       <c r="I77">
-        <v>752</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D78">
-        <v>40</v>
-      </c>
       <c r="H78">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D79">
-        <v>340</v>
-      </c>
       <c r="H79">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>13600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="D80">
+        <v>228</v>
+      </c>
       <c r="H80">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="D81">
+        <v>62</v>
+      </c>
       <c r="H81">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D82">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="H82">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="I82">
-        <v>1824</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>90</v>
       </c>
       <c r="D83">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="H83">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I83">
-        <v>496</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>91</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="I84">
-        <v>40</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D85">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H85">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I85">
-        <v>224</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D86">
-        <v>154</v>
-      </c>
       <c r="H86">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D87">
-        <v>48</v>
-      </c>
       <c r="H87">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="D88">
+        <v>42</v>
+      </c>
       <c r="H88">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>677</v>
+      </c>
       <c r="H89">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>725</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D90">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="H90">
-        <v>42</v>
+        <v>259</v>
       </c>
       <c r="I90">
-        <v>336</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D91">
-        <v>6</v>
-      </c>
-      <c r="G91">
-        <v>677</v>
+        <v>116</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="I91">
-        <v>725</v>
+        <v>928</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D92">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="H92">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="I92">
-        <v>2072</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>100</v>
       </c>
       <c r="D93">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="H93">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="I93">
-        <v>928</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>101</v>
       </c>
       <c r="D94">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="H94">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I94">
-        <v>576</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D95">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="H95">
-        <v>278</v>
+        <v>149</v>
       </c>
       <c r="I95">
-        <v>2224</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>103</v>
       </c>
       <c r="D96">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="H96">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="I96">
-        <v>192</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D97">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="H97">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="I97">
-        <v>1192</v>
+        <v>728</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D98">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="H98">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="I98">
-        <v>1384</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D99">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="H99">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I99">
-        <v>728</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D100">
-        <v>220</v>
-      </c>
       <c r="H100">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1760</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D101">
-        <v>21</v>
-      </c>
       <c r="H101">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>109</v>
@@ -4213,10 +4309,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>110</v>
@@ -4230,27 +4326,30 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="D104">
+        <v>41</v>
+      </c>
       <c r="H104">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>328</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>112</v>
@@ -4264,30 +4363,27 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D106">
-        <v>41</v>
-      </c>
       <c r="H106">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>114</v>
@@ -4301,10 +4397,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>115</v>
@@ -4318,10 +4414,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>116</v>
@@ -4335,104 +4431,104 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>117</v>
       </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
       <c r="H110">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D112">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H112">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I112">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D114">
-        <v>15</v>
-      </c>
       <c r="H114">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I114">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>122</v>
@@ -4446,181 +4542,181 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="D116">
+        <v>81</v>
+      </c>
       <c r="H116">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>648</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="D117">
+        <v>12</v>
+      </c>
       <c r="H117">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D118">
-        <v>81</v>
+      <c r="G118">
+        <v>637</v>
       </c>
       <c r="H118">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>126</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I119">
-        <v>96</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G120">
-        <v>637</v>
-      </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D121">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H121">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I121">
-        <v>180</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="D122">
+        <v>24</v>
+      </c>
       <c r="H122">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D123">
-        <v>26</v>
-      </c>
       <c r="H123">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D124">
-        <v>24</v>
-      </c>
       <c r="H124">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>132</v>
@@ -4634,161 +4730,161 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="D126">
+        <v>92</v>
+      </c>
       <c r="H126">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>134</v>
       </c>
+      <c r="D127">
+        <v>30</v>
+      </c>
       <c r="H127">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D128">
-        <v>92</v>
-      </c>
       <c r="H128">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="I128">
-        <v>644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D129">
-        <v>30</v>
-      </c>
       <c r="H129">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130">
+        <v>3</v>
+      </c>
       <c r="H130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="D131">
+        <v>480</v>
+      </c>
       <c r="H131">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>11520</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D132">
-        <v>4</v>
-      </c>
-      <c r="E132">
-        <v>3</v>
-      </c>
       <c r="H132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D133">
-        <v>480</v>
-      </c>
       <c r="H133">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>11520</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>141</v>
@@ -4802,404 +4898,404 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>142</v>
       </c>
+      <c r="D135">
+        <v>4</v>
+      </c>
       <c r="H135">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="D136">
+        <v>45</v>
+      </c>
       <c r="H136">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I137">
-        <v>32</v>
+        <v>210</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D138">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="H138">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I138">
-        <v>360</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D139">
-        <v>42</v>
-      </c>
       <c r="H139">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I139">
-        <v>210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="I140">
-        <v>25</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>148</v>
       </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
       <c r="H141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D142">
-        <v>89</v>
-      </c>
       <c r="H142">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I143">
-        <v>20</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>151</v>
       </c>
+      <c r="D144">
+        <v>11</v>
+      </c>
       <c r="H144">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D145">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
       </c>
       <c r="H145">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I145">
-        <v>75</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>153</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
       </c>
       <c r="H146">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I146">
-        <v>66</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>154</v>
       </c>
       <c r="D147">
-        <v>21</v>
-      </c>
-      <c r="E147">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H147">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I147">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D148">
-        <v>26</v>
-      </c>
-      <c r="E148">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="H148">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I148">
-        <v>212</v>
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>156</v>
       </c>
       <c r="D149">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H149">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I149">
-        <v>156</v>
+        <v>684</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>157</v>
       </c>
       <c r="D150">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>730</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>158</v>
       </c>
       <c r="D151">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H151">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I151">
-        <v>684</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>159</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I152">
-        <v>10</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D153">
-        <v>9</v>
-      </c>
       <c r="H153">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D154">
-        <v>103</v>
-      </c>
       <c r="H154">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1030</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>162</v>
@@ -5213,150 +5309,153 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>163</v>
       </c>
+      <c r="D156">
+        <v>61</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
       <c r="H156">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="D157">
+        <v>86</v>
+      </c>
+      <c r="E157">
+        <v>7</v>
+      </c>
       <c r="H157">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>867</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D158">
-        <v>61</v>
-      </c>
-      <c r="E158">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H158">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I158">
-        <v>246</v>
+        <v>560</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>166</v>
       </c>
       <c r="D159">
-        <v>86</v>
-      </c>
-      <c r="E159">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>867</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>167</v>
       </c>
       <c r="D160">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H160">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I160">
-        <v>560</v>
+        <v>198</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D162">
-        <v>66</v>
+      <c r="G162">
+        <v>89.683333329999996</v>
       </c>
       <c r="H162">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>198</v>
+        <v>89.683333329999996</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>170</v>
@@ -5370,104 +5469,101 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G164">
-        <v>89.683333329999996</v>
-      </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>89.683333329999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="D165">
+        <v>10</v>
+      </c>
       <c r="H165">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>173</v>
       </c>
+      <c r="D166">
+        <v>111</v>
+      </c>
       <c r="H166">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D167">
-        <v>10</v>
-      </c>
       <c r="H167">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D168">
-        <v>111</v>
-      </c>
       <c r="H168">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="I168">
-        <v>1110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>176</v>
@@ -5481,234 +5577,203 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>177</v>
       </c>
+      <c r="D170">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <v>1680</v>
+      </c>
       <c r="H170">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>178</v>
       </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D172">
-        <v>10</v>
-      </c>
-      <c r="G172">
-        <v>1680</v>
+        <v>409</v>
       </c>
       <c r="H172">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="I172">
-        <v>2080</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D173">
-        <v>2</v>
-      </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D174">
-        <v>409</v>
-      </c>
       <c r="H174">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>4908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="D175">
+        <v>9</v>
+      </c>
+      <c r="E175">
+        <v>9</v>
+      </c>
       <c r="H175">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="D176">
+        <v>9</v>
+      </c>
+      <c r="E176">
+        <v>4</v>
+      </c>
       <c r="H176">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D177">
-        <v>9</v>
-      </c>
-      <c r="E177">
-        <v>9</v>
-      </c>
       <c r="H177">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>45880</v>
+        <v>45908</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D178">
-        <v>9</v>
-      </c>
-      <c r="E178">
-        <v>4</v>
-      </c>
       <c r="H178">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I178">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B180" numberStoredAsText="1"/>
+    <ignoredError sqref="B2:B10 B31:B178 B11:B29" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86DCCE6-3C7A-4E81-8542-025FA8D7CBA1}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -5716,36 +5781,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B2" t="s">
+        <v>45901</v>
+      </c>
+      <c r="B2" s="8">
+        <v>301</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" t="s">
-        <v>195</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5753,39 +5818,39 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B3" t="s">
-        <v>196</v>
+        <v>45901</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B4" t="s">
-        <v>199</v>
+        <v>45901</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -5793,13 +5858,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B5" t="s">
-        <v>201</v>
+        <v>45901</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -5807,13 +5872,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B6" t="s">
-        <v>203</v>
+        <v>45901</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F6">
         <v>23</v>
@@ -5821,13 +5886,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B7" t="s">
-        <v>205</v>
+        <v>45901</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -5835,13 +5900,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
+        <v>45901</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -5849,13 +5914,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B9" t="s">
-        <v>209</v>
+        <v>45901</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F9">
         <v>34</v>
@@ -5863,13 +5928,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
+        <v>45901</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F10">
         <v>26</v>
@@ -5877,13 +5942,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B11" t="s">
-        <v>213</v>
+        <v>45901</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11">
         <v>36</v>
@@ -5891,13 +5956,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B12" t="s">
-        <v>215</v>
+        <v>45901</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -5905,13 +5970,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B13" t="s">
-        <v>217</v>
+        <v>45901</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5919,13 +5984,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B14" t="s">
-        <v>219</v>
+        <v>45901</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F14">
         <v>21</v>
@@ -5933,13 +5998,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B15" t="s">
-        <v>221</v>
+        <v>45901</v>
+      </c>
+      <c r="B15" s="8">
+        <v>684</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F15">
         <v>17</v>
@@ -5947,13 +6012,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B16" t="s">
-        <v>223</v>
+        <v>45901</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F16">
         <v>26</v>
@@ -5961,13 +6026,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B17" t="s">
-        <v>225</v>
+        <v>45901</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F17">
         <v>34</v>
@@ -5975,13 +6040,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B18" t="s">
-        <v>227</v>
+        <v>45901</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F18">
         <v>27</v>
@@ -5989,13 +6054,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B19" t="s">
-        <v>229</v>
+        <v>45901</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F19">
         <v>21</v>
@@ -6003,13 +6068,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B20" t="s">
-        <v>231</v>
+        <v>45901</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F20">
         <v>29</v>
@@ -6017,13 +6082,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B21" t="s">
-        <v>233</v>
+        <v>45901</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -6031,13 +6096,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B22" t="s">
-        <v>235</v>
+        <v>45901</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F22">
         <v>34</v>
@@ -6045,13 +6110,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B23" t="s">
-        <v>237</v>
+        <v>45901</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F23">
         <v>15</v>
@@ -6059,13 +6124,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B24" t="s">
-        <v>239</v>
+        <v>45901</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -6073,13 +6138,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B25" t="s">
-        <v>241</v>
+        <v>45901</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="C25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F25">
         <v>40</v>
@@ -6087,13 +6152,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B26" t="s">
-        <v>243</v>
+        <v>45901</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F26">
         <v>20</v>
@@ -6101,13 +6166,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B27" t="s">
-        <v>245</v>
+        <v>45901</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F27">
         <v>34</v>
@@ -6115,13 +6180,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B28" t="s">
-        <v>247</v>
+        <v>45901</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F28">
         <v>17</v>
@@ -6129,13 +6194,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B29" t="s">
-        <v>249</v>
+        <v>45901</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -6143,13 +6208,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B30" t="s">
-        <v>251</v>
+        <v>45901</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -6157,13 +6222,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B31" t="s">
-        <v>253</v>
+        <v>45901</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -6171,13 +6236,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B32" t="s">
-        <v>255</v>
+        <v>45901</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F32">
         <v>34</v>
@@ -6185,13 +6250,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B33" t="s">
-        <v>257</v>
+        <v>45901</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F33">
         <v>14</v>
@@ -6199,13 +6264,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B34" t="s">
-        <v>259</v>
+        <v>45901</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F34">
         <v>39</v>
@@ -6213,13 +6278,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B35" t="s">
-        <v>261</v>
+        <v>45901</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -6227,13 +6292,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B36" t="s">
-        <v>263</v>
+        <v>45901</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F36">
         <v>20</v>
@@ -6241,13 +6306,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B37" t="s">
-        <v>265</v>
+        <v>45901</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F37">
         <v>13</v>
@@ -6255,13 +6320,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B38" t="s">
-        <v>267</v>
+        <v>45901</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F38">
         <v>40</v>
@@ -6269,13 +6334,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B39" t="s">
-        <v>269</v>
+        <v>45901</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F39">
         <v>8</v>
@@ -6283,13 +6348,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B40" t="s">
-        <v>271</v>
+        <v>45901</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F40">
         <v>27</v>
@@ -6297,13 +6362,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B41" t="s">
-        <v>273</v>
+        <v>45901</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="C41" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F41">
         <v>36</v>
@@ -6311,13 +6376,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B42" t="s">
-        <v>275</v>
+        <v>45901</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F42">
         <v>36</v>
@@ -6325,13 +6390,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B43" t="s">
-        <v>277</v>
+        <v>45901</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F43">
         <v>18</v>
@@ -6339,13 +6404,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B44" t="s">
-        <v>279</v>
+        <v>45901</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C44" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -6353,13 +6418,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B45" t="s">
-        <v>281</v>
+        <v>45901</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -6367,13 +6432,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B46" t="s">
-        <v>283</v>
+        <v>45901</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F46">
         <v>38</v>
@@ -6381,13 +6446,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B47" t="s">
-        <v>285</v>
+        <v>45901</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F47">
         <v>26</v>
@@ -6395,13 +6460,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B48" t="s">
-        <v>287</v>
+        <v>45901</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="C48" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F48">
         <v>24</v>
@@ -6409,13 +6474,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B49" t="s">
-        <v>289</v>
+        <v>45901</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="C49" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F49">
         <v>5</v>
@@ -6423,13 +6488,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B50" t="s">
-        <v>291</v>
+        <v>45901</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="C50" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F50">
         <v>37</v>
@@ -6437,13 +6502,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B51" t="s">
-        <v>293</v>
+        <v>45901</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="C51" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F51">
         <v>15</v>
@@ -6451,13 +6516,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B52" t="s">
-        <v>295</v>
+        <v>45901</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -6465,13 +6530,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B53" t="s">
-        <v>297</v>
+        <v>45901</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="C53" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F53">
         <v>39</v>
@@ -6479,13 +6544,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B54" t="s">
-        <v>299</v>
+        <v>45901</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="C54" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F54">
         <v>23</v>
@@ -6493,13 +6558,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B55" t="s">
-        <v>301</v>
+        <v>45901</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="C55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F55">
         <v>9</v>
@@ -6507,13 +6572,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B56" t="s">
-        <v>303</v>
+        <v>45901</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F56">
         <v>19</v>
@@ -6521,13 +6586,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B57" t="s">
-        <v>305</v>
+        <v>45901</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F57">
         <v>20</v>
@@ -6535,13 +6600,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B58" t="s">
-        <v>307</v>
+        <v>45901</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>303</v>
       </c>
       <c r="C58" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F58">
         <v>7</v>
@@ -6549,13 +6614,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B59" t="s">
-        <v>309</v>
+        <v>45901</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F59">
         <v>32</v>
@@ -6563,13 +6628,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B60" t="s">
-        <v>311</v>
+        <v>45901</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="C60" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -6577,13 +6642,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B61" t="s">
-        <v>313</v>
+        <v>45901</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>309</v>
       </c>
       <c r="C61" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F61">
         <v>20</v>
@@ -6591,13 +6656,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B62" t="s">
-        <v>314</v>
+        <v>45901</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="C62" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F62">
         <v>16</v>
@@ -6605,13 +6670,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B63" t="s">
-        <v>316</v>
+        <v>45901</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F63">
         <v>38</v>
@@ -6619,13 +6684,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B64" t="s">
-        <v>318</v>
+        <v>45901</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F64">
         <v>36</v>
@@ -6633,13 +6698,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B65" t="s">
-        <v>320</v>
+        <v>45901</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="C65" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F65">
         <v>37</v>
@@ -6647,13 +6712,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B66" t="s">
-        <v>322</v>
+        <v>45901</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>318</v>
       </c>
       <c r="C66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F66">
         <v>24</v>
@@ -6661,13 +6726,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B67" t="s">
-        <v>324</v>
+        <v>45901</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F67">
         <v>18</v>
@@ -6675,13 +6740,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B68" t="s">
-        <v>326</v>
+        <v>45901</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="C68" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F68">
         <v>24</v>
@@ -6689,13 +6754,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B69" t="s">
-        <v>328</v>
+        <v>45901</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>324</v>
       </c>
       <c r="C69" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -6703,13 +6768,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B70" t="s">
-        <v>330</v>
+        <v>45901</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>326</v>
       </c>
       <c r="C70" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F70">
         <v>24</v>
@@ -6717,13 +6782,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B71" t="s">
-        <v>332</v>
+        <v>45901</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F71">
         <v>16</v>
@@ -6731,13 +6796,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B72" t="s">
-        <v>334</v>
+        <v>45901</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>330</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -6745,13 +6810,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B73" t="s">
-        <v>336</v>
+        <v>45901</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="C73" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F73">
         <v>32</v>
@@ -6759,13 +6824,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B74" t="s">
-        <v>338</v>
+        <v>45901</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="C74" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F74">
         <v>21</v>
@@ -6773,13 +6838,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B75" t="s">
-        <v>340</v>
+        <v>45901</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="C75" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F75">
         <v>4</v>
@@ -6787,13 +6852,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B76" t="s">
-        <v>342</v>
+        <v>45901</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="C76" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F76">
         <v>40</v>
@@ -6801,13 +6866,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B77" t="s">
-        <v>344</v>
+        <v>45901</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="C77" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F77">
         <v>22</v>
@@ -6815,13 +6880,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B78" t="s">
-        <v>346</v>
+        <v>45901</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F78">
         <v>28</v>
@@ -6829,13 +6894,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B79" t="s">
-        <v>348</v>
+        <v>45901</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="C79" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F79">
         <v>38</v>
@@ -6843,13 +6908,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B80" t="s">
-        <v>350</v>
+        <v>45901</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="C80" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F80">
         <v>30</v>
@@ -6857,13 +6922,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B81" t="s">
-        <v>352</v>
+        <v>45901</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F81">
         <v>15</v>
@@ -6871,13 +6936,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B82" t="s">
-        <v>354</v>
+        <v>45901</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="C82" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F82">
         <v>37</v>
@@ -6885,13 +6950,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B83" t="s">
-        <v>356</v>
+        <v>45901</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="C83" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -6899,13 +6964,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B84" t="s">
-        <v>358</v>
+        <v>45901</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="C84" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F84">
         <v>15</v>
@@ -6913,13 +6978,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B85" t="s">
-        <v>360</v>
+        <v>45901</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="C85" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -6927,13 +6992,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B86" t="s">
-        <v>362</v>
+        <v>45901</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="C86" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F86">
         <v>32</v>
@@ -6941,13 +7006,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B87" t="s">
-        <v>364</v>
+        <v>45901</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>556</v>
       </c>
       <c r="C87" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F87">
         <v>18</v>
@@ -6955,13 +7020,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B88" t="s">
-        <v>366</v>
+        <v>45901</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="C88" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F88">
         <v>14</v>
@@ -6969,13 +7034,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B89" t="s">
-        <v>368</v>
+        <v>45901</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="C89" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F89">
         <v>36</v>
@@ -6983,13 +7048,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B90" t="s">
-        <v>370</v>
+        <v>45901</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="C90" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F90">
         <v>5</v>
@@ -6997,13 +7062,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B91" t="s">
-        <v>372</v>
+        <v>45901</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>367</v>
       </c>
       <c r="C91" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F91">
         <v>30</v>
@@ -7011,13 +7076,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B92" t="s">
-        <v>374</v>
+        <v>45901</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="C92" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F92">
         <v>32</v>
@@ -7025,13 +7090,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B93" t="s">
-        <v>376</v>
+        <v>45901</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -7039,13 +7104,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B94" t="s">
-        <v>378</v>
+        <v>45901</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F94">
         <v>35</v>
@@ -7053,13 +7118,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B95" t="s">
-        <v>380</v>
+        <v>45901</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="C95" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F95">
         <v>7</v>
@@ -7067,22 +7132,330 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>45880</v>
-      </c>
-      <c r="B96" t="s">
-        <v>382</v>
+        <v>45901</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="C96" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F96">
         <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B97" t="s">
+        <v>557</v>
+      </c>
+      <c r="C97" t="s">
+        <v>574</v>
+      </c>
+      <c r="F97">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B98" t="s">
+        <v>558</v>
+      </c>
+      <c r="C98" t="s">
+        <v>575</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B99" s="8">
+        <v>623</v>
+      </c>
+      <c r="C99" t="s">
+        <v>576</v>
+      </c>
+      <c r="F99">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B100" t="s">
+        <v>559</v>
+      </c>
+      <c r="C100" t="s">
+        <v>577</v>
+      </c>
+      <c r="F100">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B101" t="s">
+        <v>560</v>
+      </c>
+      <c r="C101" t="s">
+        <v>578</v>
+      </c>
+      <c r="F101">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B102" t="s">
+        <v>561</v>
+      </c>
+      <c r="C102" t="s">
+        <v>579</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B103" t="s">
+        <v>562</v>
+      </c>
+      <c r="C103" t="s">
+        <v>580</v>
+      </c>
+      <c r="F103">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B104" t="s">
+        <v>563</v>
+      </c>
+      <c r="C104" t="s">
+        <v>581</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B105" s="8">
+        <v>640.1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>582</v>
+      </c>
+      <c r="F105">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B106" t="s">
+        <v>564</v>
+      </c>
+      <c r="C106" t="s">
+        <v>583</v>
+      </c>
+      <c r="F106">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B107" t="s">
+        <v>565</v>
+      </c>
+      <c r="C107" t="s">
+        <v>584</v>
+      </c>
+      <c r="F107">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B108" t="s">
+        <v>566</v>
+      </c>
+      <c r="C108" t="s">
+        <v>585</v>
+      </c>
+      <c r="F108">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B109" t="s">
+        <v>567</v>
+      </c>
+      <c r="C109" t="s">
+        <v>586</v>
+      </c>
+      <c r="F109">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B110" t="s">
+        <v>568</v>
+      </c>
+      <c r="C110" t="s">
+        <v>587</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B111" s="8">
+        <v>779</v>
+      </c>
+      <c r="C111" t="s">
+        <v>588</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B112" t="s">
+        <v>569</v>
+      </c>
+      <c r="C112" t="s">
+        <v>589</v>
+      </c>
+      <c r="F112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B113" t="s">
+        <v>570</v>
+      </c>
+      <c r="C113" t="s">
+        <v>590</v>
+      </c>
+      <c r="F113">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B114" t="s">
+        <v>571</v>
+      </c>
+      <c r="C114" t="s">
+        <v>591</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B115" t="s">
+        <v>572</v>
+      </c>
+      <c r="C115" t="s">
+        <v>592</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B116" s="8">
+        <v>369</v>
+      </c>
+      <c r="C116" t="s">
+        <v>593</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C117" t="s">
+        <v>594</v>
+      </c>
+      <c r="F117">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B118" s="8">
+        <v>777</v>
+      </c>
+      <c r="C118" t="s">
+        <v>595</v>
+      </c>
+      <c r="F118">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B96" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:B14 B88:B96 B16:B86 B97:B98 B102 B106 B109 B113 B115 B117" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>